--- a/동서발전/로그 관리.xlsx
+++ b/동서발전/로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>lgbm + cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lgbm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습도 log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +83,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808388"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
@@ -114,13 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,27 +408,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -434,7 +440,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>20.894513574699999</v>
       </c>
     </row>
@@ -445,7 +451,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>8.9868929702999996</v>
       </c>
     </row>
@@ -456,7 +462,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>8.8968570895999992</v>
       </c>
     </row>
@@ -467,8 +473,30 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>8.8845824563000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8.8962359069999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>9.0128937400000009</v>
       </c>
     </row>
   </sheetData>

--- a/동서발전/로그 관리.xlsx
+++ b/동서발전/로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>습도 log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이스라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이퍼 파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr = 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr = 0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=0.0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,16 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,7 +452,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -440,6 +466,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2">
         <v>20.894513574699999</v>
       </c>
@@ -497,6 +526,34 @@
       </c>
       <c r="D7">
         <v>9.0128937400000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>17.348974999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>17.348974999999999</v>
       </c>
     </row>
   </sheetData>

--- a/동서발전/로그 관리.xlsx
+++ b/동서발전/로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>lr=0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amdap lr = 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amdap lr = 0.05 focal loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amdap lr = 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,6 +568,48 @@
         <v>17.348974999999999</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>17.348974999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>17.348974999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>17.348974999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동서발전/로그 관리.xlsx
+++ b/동서발전/로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>amdap lr = 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,6 +626,28 @@
         <v>17.348974999999999</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>8.4709201000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>8.4590680000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동서발전/로그 관리.xlsx
+++ b/동서발전/로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>0 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터 튜닝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +155,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +190,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -460,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,24 +639,35 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>8.4709201000000007</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.4786531133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.4337673417999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="D14">
-        <v>8.4590680000000003</v>
+      <c r="D15" s="3">
+        <v>8.5637019984999991</v>
       </c>
     </row>
   </sheetData>

--- a/동서발전/로그 관리.xlsx
+++ b/동서발전/로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>파라미터 튜닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr = 0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr = 0.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,6 +678,34 @@
         <v>8.5637019984999991</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.4055596990999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8.6712907838</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
